--- a/data/input/absenteeism_data_43.xlsx
+++ b/data/input/absenteeism_data_43.xlsx
@@ -476,248 +476,248 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>14200</v>
+        <v>73319</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Igor Moreira</t>
+          <t>Dra. Bruna Ferreira</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Recursos Humanos</t>
+          <t>TI</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>45103</v>
+        <v>45086</v>
       </c>
       <c r="G2" t="n">
-        <v>12318.16</v>
+        <v>5032.68</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>61303</v>
+        <v>57821</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Amanda Viana</t>
+          <t>Dr. Carlos Eduardo Almeida</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>TI</t>
+          <t>Operações</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Consulta médica</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E3" t="n">
         <v>6</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>45103</v>
+        <v>45083</v>
       </c>
       <c r="G3" t="n">
-        <v>3814.8</v>
+        <v>4666.58</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>98144</v>
+        <v>80219</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Lavínia Duarte</t>
+          <t>Mirella Pereira</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>TI</t>
+          <t>Atendimento ao Cliente</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Doença</t>
+          <t>Viagem de negócios</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>45091</v>
+        <v>45106</v>
       </c>
       <c r="G4" t="n">
-        <v>8890.780000000001</v>
+        <v>12055.51</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>13740</v>
+        <v>18023</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Davi Rocha</t>
+          <t>Francisco Freitas</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Recursos Humanos</t>
+          <t>Jurídico</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>45104</v>
+        <v>45098</v>
       </c>
       <c r="G5" t="n">
-        <v>8767.76</v>
+        <v>3277.68</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>39273</v>
+        <v>1462</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>João da Paz</t>
+          <t>Ian Cunha</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Operações</t>
+          <t>Vendas</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Consulta médica</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>45082</v>
+        <v>45092</v>
       </c>
       <c r="G6" t="n">
-        <v>4850.88</v>
+        <v>9471.889999999999</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>17092</v>
+        <v>92505</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Sr. Pedro Lucas Dias</t>
+          <t>Dr. Pedro Moraes</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>P&amp;D</t>
+          <t>Jurídico</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Viagem de negócios</t>
+          <t>Doença</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>45105</v>
+        <v>45079</v>
       </c>
       <c r="G7" t="n">
-        <v>11044.65</v>
+        <v>11746.11</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>7846</v>
+        <v>78747</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Yuri Moraes</t>
+          <t>Vitória Dias</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Operações</t>
+          <t>TI</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Viagem de negócios</t>
+          <t>Consulta médica</t>
         </is>
       </c>
       <c r="E8" t="n">
         <v>5</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>45086</v>
+        <v>45105</v>
       </c>
       <c r="G8" t="n">
-        <v>12163.43</v>
+        <v>9564.16</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>21470</v>
+        <v>75600</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Ana Vitória da Rocha</t>
+          <t>Luiz Miguel Caldeira</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Financeiro</t>
+          <t>Marketing</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Doença</t>
+          <t>Viagem de negócios</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>45099</v>
+        <v>45100</v>
       </c>
       <c r="G9" t="n">
-        <v>8663.549999999999</v>
+        <v>2864.58</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>84781</v>
+        <v>87173</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Ian Castro</t>
+          <t>Raquel da Rocha</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Recursos Humanos</t>
+          <t>Operações</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -726,42 +726,42 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>45095</v>
+        <v>45096</v>
       </c>
       <c r="G10" t="n">
-        <v>8547.129999999999</v>
+        <v>3516.6</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>29076</v>
+        <v>54630</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Cecília Moreira</t>
+          <t>Pietro Rocha</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>P&amp;D</t>
+          <t>Vendas</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Viagem de negócios</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>45081</v>
+        <v>45080</v>
       </c>
       <c r="G11" t="n">
-        <v>11022.13</v>
+        <v>10038.84</v>
       </c>
     </row>
   </sheetData>
